--- a/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.38</t>
+    <t>urn:oid:1.2.250.1.213.3.3.38</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -420,7 +426,10 @@
     <t>Addictologue</t>
   </si>
   <si>
-    <t/>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Conseiller conjugal et familial</t>
   </si>
   <si>
     <t>System URI</t>
@@ -560,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,20 +675,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,458 +718,466 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>137</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2023-06-30T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,364 +72,355 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Compétence spécifique - ROR</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Langue des Signes Française (LSF)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Langue Parlé Complété (LPC)</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Maîtrise de la lecture et de l'écriture du Braille</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Art-thérapeute</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Neuropsychologue</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Maîtrise de langue étrangère</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Maîtrise de langue régionale</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Intervenant pair (médiateur, pair-aidant)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Socio-esthéticienne</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Enseignant du 1er degré</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Enseignant du 2nd degré</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Enseignant du supérieur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Puéricultrice</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Médecin coordonnateur</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Infirmier coordonnateur</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Phoniatre</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio phonologue</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Ingénieur en analyse du mouvement</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Psychologue clinicien</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Animateur socio-culturel</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Moniteur d'atelier</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Méthode verbo-tonale : aide à l'apprentissage de la parole</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Maîtrise du PECS</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Méthode ABA</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Maîtrise du MAKATON</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Maîtrise des Gestes Borel-Maisonny</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Maîtrise de la COGHAMO</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Maîtrise des Codes de communication pictographiques (classeurs, planches)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Maîtrise des outils informatisés avec synthèse vocale à entrée orthographique ou pictographique (téléthèses, logiciels de communication)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Maîtrise des logiciels d'aide à la transcription (retour vocal, prédicteur de mots)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Ostéopathe</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Maîtrise de programmes d'intervention globaux à référence développementale (TEACCH, DENVER,...)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Psychiatre</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Gériatre</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Pédopsychiatre</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Veilleur de nuit</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Assistant(e) de soins en gérontologie</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Conseillère en économie sociale et familiale (CESF)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Aide médico psychologique (AMP)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Auxiliaire de vie sociale (AVS)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Accompagnant Educatif et Social (AES)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Avéjiste</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Instructeur en locomotion</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Educateur sportif</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Conseiller en insertion professionnelle</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Coordonnateur et gestionnaire de parcours handicap</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Neuropédiatre</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Psychopédagogue</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Ergonome</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Psychologue du travail</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Tabacologue</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Addictologue</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Compétence spécifique - ROR</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Langue des Signes Française (LSF)</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Langue Parlé Complété (LPC)</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Maîtrise de la lecture et de l'écriture du Braille</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Art-thérapeute</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Neuropsychologue</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Maîtrise de langue étrangère</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Maîtrise de langue régionale</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Intervenant pair (médiateur, pair-aidant)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Socio-esthéticienne</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Enseignant du 1er degré</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Enseignant du 2nd degré</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Enseignant du supérieur</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Puéricultrice</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Médecin coordonnateur</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Infirmier coordonnateur</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Phoniatre</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio phonologue</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Ingénieur en analyse du mouvement</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Psychologue clinicien</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Animateur socio-culturel</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Moniteur d'atelier</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Méthode verbo-tonale : aide à l'apprentissage de la parole</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Maîtrise du PECS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Méthode ABA</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Maîtrise du MAKATON</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Maîtrise des Gestes Borel-Maisonny</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Maîtrise de la COGHAMO</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Maîtrise des Codes de communication pictographiques (classeurs, planches)</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Maîtrise des outils informatisés avec synthèse vocale à entrée orthographique ou pictographique (téléthèses, logiciels de communication)</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Maîtrise des logiciels d'aide à la transcription (retour vocal, prédicteur de mots)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Ostéopathe</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Maîtrise de programmes d'intervention globaux à référence développementale (TEACCH, DENVER,...)</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Psychiatre</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Gériatre</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Pédopsychiatre</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Veilleur de nuit</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Assistant(e) de soins en gérontologie</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Conseillère en économie sociale et familiale (CESF)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Aide médico psychologique (AMP)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Auxiliaire de vie sociale (AVS)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Accompagnant Educatif et Social (AES)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Avéjiste</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Instructeur en locomotion</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Educateur sportif</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Conseiller en insertion professionnelle</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Coordonnateur et gestionnaire de parcours handicap</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Neuropédiatre</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Psychopédagogue</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Ergonome</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Psychologue du travail</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Tabacologue</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Addictologue</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Conseiller conjugal et familial</t>
   </si>
   <si>
     <t>System URI</t>
@@ -569,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -675,28 +666,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,466 +701,458 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,361 +75,358 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Compétence spécifique - ROR</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Langue des Signes Française (LSF)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Langue Parlé Complété (LPC)</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Maîtrise de la lecture et de l'écriture du Braille</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Art-thérapeute</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Neuropsychologue</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Maîtrise de langue étrangère</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Maîtrise de langue régionale</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Intervenant pair (médiateur, pair-aidant)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Socio-esthéticienne</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Enseignant du 1er degré</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Enseignant du 2nd degré</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Enseignant du supérieur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Puéricultrice</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Médecin coordonnateur</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Infirmier coordonnateur</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Phoniatre</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio phonologue</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Ingénieur en analyse du mouvement</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Psychologue clinicien</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Animateur socio-culturel</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Moniteur d'atelier</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Méthode verbo-tonale : aide à l'apprentissage de la parole</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Maîtrise du PECS</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Maîtrise de la Méthode ABA</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Maîtrise du MAKATON</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Maîtrise des Gestes Borel-Maisonny</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Maîtrise de la COGHAMO</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Maîtrise des Codes de communication pictographiques (classeurs, planches)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Maîtrise des outils informatisés avec synthèse vocale à entrée orthographique ou pictographique (téléthèses, logiciels de communication)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Maîtrise des logiciels d'aide à la transcription (retour vocal, prédicteur de mots)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Ostéopathe</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Maîtrise de programmes d'intervention globaux à référence développementale (TEACCH, DENVER,...)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Psychiatre</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Gériatre</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Pédopsychiatre</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Veilleur de nuit</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Assistant(e) de soins en gérontologie</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Conseillère en économie sociale et familiale (CESF)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Aide médico psychologique (AMP)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Auxiliaire de vie sociale (AVS)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Accompagnant Educatif et Social (AES)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Avéjiste</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Instructeur en locomotion</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Educateur sportif</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Conseiller en insertion professionnelle</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Coordonnateur et gestionnaire de parcours handicap</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Neuropédiatre</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Psychopédagogue</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Ergonome</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Psychologue du travail</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Tabacologue</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Addictologue</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Conseiller conjugal et familial</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Compétence spécifique - ROR</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Langue des Signes Française (LSF)</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Langue Parlé Complété (LPC)</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Maîtrise de la lecture et de l'écriture du Braille</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Art-thérapeute</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Neuropsychologue</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Maîtrise de langue étrangère</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Maîtrise de langue régionale</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Intervenant pair (médiateur, pair-aidant)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Socio-esthéticienne</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Enseignant du 1er degré</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Enseignant du 2nd degré</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Enseignant du supérieur</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Puéricultrice</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Médecin coordonnateur</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Infirmier coordonnateur</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Phoniatre</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio phonologue</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Ingénieur en analyse du mouvement</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Psychologue clinicien</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Animateur socio-culturel</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Moniteur d'atelier</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Méthode verbo-tonale : aide à l'apprentissage de la parole</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Maîtrise du PECS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Maîtrise de la Méthode ABA</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Maîtrise du MAKATON</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Maîtrise des Gestes Borel-Maisonny</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Maîtrise de la COGHAMO</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Maîtrise des Codes de communication pictographiques (classeurs, planches)</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Maîtrise des outils informatisés avec synthèse vocale à entrée orthographique ou pictographique (téléthèses, logiciels de communication)</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Maîtrise des logiciels d'aide à la transcription (retour vocal, prédicteur de mots)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Ostéopathe</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Maîtrise de programmes d'intervention globaux à référence développementale (TEACCH, DENVER,...)</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Psychiatre</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Gériatre</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Pédopsychiatre</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Veilleur de nuit</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Assistant(e) de soins en gérontologie</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Conseillère en économie sociale et familiale (CESF)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Aide médico psychologique (AMP)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Auxiliaire de vie sociale (AVS)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Accompagnant Educatif et Social (AES)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Avéjiste</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Instructeur en locomotion</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Educateur sportif</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Conseiller en insertion professionnelle</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Coordonnateur et gestionnaire de parcours handicap</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Neuropédiatre</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Psychopédagogue</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Ergonome</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Psychologue du travail</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Tabacologue</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Addictologue</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Conseiller conjugal et familial</t>
   </si>
   <si>
     <t>System URI</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -675,28 +672,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -718,466 +707,466 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J33-CompetenceSpecifique-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
